--- a/files/Step_6_join_bestseller_books_with_films/bestseller_books_movies_by_hand.xlsx
+++ b/files/Step_6_join_bestseller_books_with_films/bestseller_books_movies_by_hand.xlsx
@@ -3038,7 +3038,7 @@
   <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G590" sqref="G590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10467,7 +10467,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G256" s="2">
-        <v>392499</v>
+        <v>3858</v>
       </c>
       <c r="H256" s="2">
         <v>10.27</v>
@@ -12642,7 +12642,7 @@
         <v>3.96</v>
       </c>
       <c r="G331" s="2">
-        <v>793821</v>
+        <v>7126</v>
       </c>
       <c r="H331" s="2">
         <v>6.39</v>
@@ -12993,7 +12993,7 @@
         <v>15.2</v>
       </c>
       <c r="H343" s="2">
-        <v>10434</v>
+        <v>8</v>
       </c>
       <c r="I343" s="2">
         <v>0</v>
